--- a/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
+++ b/InputData/bldgs/PPEIdtICEaT/Pot Perc Eff Impr due to Impr Contractor Edu and Training.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\bldgs\PPEIdtICEaT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="20100" windowHeight="7335"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="PPEIdtICEaT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -69,67 +74,76 @@
     <t>Page 6-26, Table 2, Col 3 and Page 6-26, first sentence</t>
   </si>
   <si>
-    <t>Building Component</t>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>cooling and ventilation</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>lighting</t>
+  </si>
+  <si>
+    <t>appliances</t>
+  </si>
+  <si>
+    <t>other component</t>
+  </si>
+  <si>
+    <t>PPEIdtICEaT Potential Percentage Eff Improvement due to Improved Contractor Edu and Training</t>
+  </si>
+  <si>
+    <t>the "heating" and "cooling and ventilation" components.</t>
+  </si>
+  <si>
+    <t>Percentage Heating Improvement due to Education and Training</t>
+  </si>
+  <si>
+    <t>The Wisconsin study looked specifically at changes in heating energy use.  In our model, we apply</t>
+  </si>
+  <si>
+    <t>training improvements were manifested.  Envelope improvements reduce the energy use of both</t>
+  </si>
+  <si>
+    <t>the changes to  the "envelope" component, because this best represents where the</t>
+  </si>
+  <si>
+    <t>We assume education and training do not improve efficiency of non-envelope components</t>
+  </si>
+  <si>
+    <t>The "building component quality" subscript in the model handles different tiers of efficiency</t>
+  </si>
+  <si>
+    <t>of these other components.</t>
+  </si>
+  <si>
+    <t>because these represent specific machines whose performance is determined largely by the</t>
+  </si>
+  <si>
+    <t>machines' properties and not the education or training of the installer.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This policy covers improvements in air sealing, framing, and insulation, so it applies to the </t>
+  </si>
+  <si>
+    <t>"envelope" component.</t>
   </si>
   <si>
     <t>Efficiency Improvement</t>
   </si>
   <si>
-    <t>heating</t>
-  </si>
-  <si>
-    <t>cooling and ventilation</t>
-  </si>
-  <si>
-    <t>envelope</t>
-  </si>
-  <si>
-    <t>lighting</t>
-  </si>
-  <si>
-    <t>appliances</t>
-  </si>
-  <si>
-    <t>other component</t>
-  </si>
-  <si>
-    <t>PPEIdtICEaT Potential Percentage Eff Improvement due to Improved Contractor Edu and Training</t>
-  </si>
-  <si>
-    <t>the "heating" and "cooling and ventilation" components.</t>
-  </si>
-  <si>
-    <t>Percentage Heating Improvement due to Education and Training</t>
-  </si>
-  <si>
-    <t>The Wisconsin study looked specifically at changes in heating energy use.  In our model, we apply</t>
-  </si>
-  <si>
-    <t>training improvements were manifested.  Envelope improvements reduce the energy use of both</t>
-  </si>
-  <si>
-    <t>the changes to  the "envelope" component, because this best represents where the</t>
-  </si>
-  <si>
-    <t>We assume education and training do not improve efficiency of non-envelope components</t>
-  </si>
-  <si>
-    <t>The "building component quality" subscript in the model handles different tiers of efficiency</t>
-  </si>
-  <si>
-    <t>of these other components.</t>
-  </si>
-  <si>
-    <t>because these represent specific machines whose performance is determined largely by the</t>
-  </si>
-  <si>
-    <t>machines' properties and not the education or training of the installer.</t>
+    <t>Building Component Efficiency Improvement (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -200,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,9 +232,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -228,10 +239,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -242,6 +259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,6 +596,21 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -612,23 +649,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -663,16 +700,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>-30</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>25</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
@@ -722,7 +759,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -741,28 +778,28 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -773,35 +810,35 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -833,17 +870,17 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -851,7 +888,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -859,16 +896,16 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="14">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12">
         <f>Data!A14</f>
         <v>3.7142857142857144E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -876,7 +913,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -884,7 +921,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
